--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -555,10 +555,9 @@
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -566,9 +565,9 @@
       <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -576,15 +575,15 @@
       <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -596,7 +595,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -604,9 +603,9 @@
       <c r="I7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -614,7 +613,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -622,13 +621,13 @@
       <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -636,9 +635,9 @@
       <c r="K7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -652,9 +651,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -662,11 +661,11 @@
       <c r="M7" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -676,7 +675,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -684,7 +683,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -815,10 +814,9 @@
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -826,9 +824,9 @@
       <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -836,15 +834,15 @@
       <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 FAIR
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 POOR
 </t>
         </is>
@@ -856,7 +854,7 @@
 FAIR
 2. Quality of the food
 FAIR
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -864,9 +862,9 @@
       <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 GOOD
@@ -874,7 +872,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -882,13 +880,13 @@
       <c r="J8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -896,9 +894,9 @@
       <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -912,9 +910,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -922,11 +920,11 @@
       <c r="M8" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -936,7 +934,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -944,7 +942,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 POOR
 </t>
         </is>
@@ -1075,10 +1073,9 @@
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -1086,9 +1083,9 @@
       <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -1096,15 +1093,15 @@
       <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 FAIR
 </t>
         </is>
@@ -1116,7 +1113,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -1124,9 +1121,9 @@
       <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -1134,7 +1131,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -1142,13 +1139,13 @@
       <c r="J9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -1156,9 +1153,9 @@
       <c r="K9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -1172,9 +1169,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -1182,11 +1179,11 @@
       <c r="M9" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -1196,7 +1193,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -1204,7 +1201,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -1342,10 +1339,9 @@
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -1353,9 +1349,9 @@
       <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
+1. Speed of admission process
 FAIR
-2. Courtesy of the person who admitted you†
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -1363,15 +1359,15 @@
       <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -1383,7 +1379,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -1391,9 +1387,9 @@
       <c r="I10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 FAIR
 3. Nurses' attitude toward your requests
 GOOD
@@ -1401,7 +1397,7 @@
 FAIR
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -1409,13 +1405,13 @@
       <c r="J10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
+1. Waiting time for tests or treatments
 FAIR
-2. Explanations about what would happen during tests and treatments†
+2. Explanations about what would happen during tests and treatments
 FAIR
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -1423,9 +1419,9 @@
       <c r="K10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -1439,9 +1435,9 @@
 FAIR
 3. How well doctors kept you informed
 FAIR
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 FAIR
 </t>
         </is>
@@ -1449,11 +1445,11 @@
       <c r="M10" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
+1. Extent to which you felt ready to be discharged
 POOR
-2. Speed of discharge process after you were told you could go home†
+2. Speed of discharge process after you were told you could go home
 FAIR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 FAIR
 </t>
         </is>
@@ -1463,7 +1459,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY POOR
 3. How well staff addressed your emotional needs
 GOOD
@@ -1471,7 +1467,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 GOOD
 </t>
         </is>
@@ -1613,10 +1609,9 @@
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -1624,9 +1619,9 @@
       <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -1634,15 +1629,15 @@
       <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -1654,7 +1649,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -1662,13 +1657,13 @@
       <c r="I11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
+1. Friendliness/courtesy of the nurses
 VERY GOOD
 2. Nurses' attitude toward your requests
 VERY GOOD
 3. How well the nurses kept you informed
 GOOD
-4. Skill of the nurses†
+4. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -1676,13 +1671,13 @@
       <c r="J11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -1690,9 +1685,9 @@
       <c r="K11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -1710,7 +1705,7 @@
       <c r="M11" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
+1. Extent to which you felt ready to be discharged
 VERY GOOD
 </t>
         </is>
@@ -1831,10 +1826,9 @@
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -1842,9 +1836,9 @@
       <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -1852,15 +1846,15 @@
       <c r="G12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 FAIR
 </t>
         </is>
@@ -1872,7 +1866,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -1880,9 +1874,9 @@
       <c r="I12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -1890,7 +1884,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -1898,13 +1892,13 @@
       <c r="J12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -1912,9 +1906,9 @@
       <c r="K12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -1928,9 +1922,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -1938,11 +1932,11 @@
       <c r="M12" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
 FAIR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -1952,13 +1946,13 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 GOOD
 4. Response to concerns/complaints made during your stay
 GOOD
-5. Extent to which staff washed their hands before examining you†
+5. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -2106,10 +2100,9 @@
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -2117,9 +2110,9 @@
       <c r="F13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -2127,15 +2120,15 @@
       <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -2147,7 +2140,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -2155,9 +2148,9 @@
       <c r="I13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -2165,7 +2158,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -2173,13 +2166,13 @@
       <c r="J13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -2187,9 +2180,9 @@
       <c r="K13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -2203,9 +2196,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -2213,11 +2206,11 @@
       <c r="M13" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -2227,7 +2220,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -2235,7 +2228,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -2377,10 +2370,9 @@
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 1
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY NO
 </t>
         </is>
@@ -2395,11 +2387,11 @@
       <c r="M14" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
+1. Extent to which you felt ready to be discharged
 VERY POOR
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 POOR
 </t>
         </is>
@@ -2409,7 +2401,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY POOR
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 POOR
@@ -2417,7 +2409,7 @@
 VERY POOR
 5. Staff effort to include you in decisions about your treatment
 VERY POOR
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -2545,10 +2537,9 @@
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -2556,9 +2547,9 @@
       <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -2566,15 +2557,15 @@
       <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
+1. Pleasantness of room decor
 FAIR
-2. Room cleanliness†
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -2586,7 +2577,7 @@
 GOOD
 2. Quality of the food
 FAIR
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -2594,9 +2585,9 @@
       <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -2604,7 +2595,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -2612,13 +2603,13 @@
       <c r="J15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -2626,9 +2617,9 @@
       <c r="K15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -2642,9 +2633,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -2652,11 +2643,11 @@
       <c r="M15" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -2666,7 +2657,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -2674,7 +2665,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -2809,10 +2800,9 @@
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -2820,9 +2810,9 @@
       <c r="F16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -2830,15 +2820,15 @@
       <c r="G16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -2850,7 +2840,7 @@
 VERY GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -2858,9 +2848,9 @@
       <c r="I16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -2868,7 +2858,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -2876,13 +2866,13 @@
       <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -2890,9 +2880,9 @@
       <c r="K16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -2906,9 +2896,9 @@
 GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -2916,11 +2906,11 @@
       <c r="M16" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
 FAIR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -2930,7 +2920,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -2938,7 +2928,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 GOOD
 </t>
         </is>
@@ -3067,10 +3057,9 @@
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -3078,9 +3067,9 @@
       <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
+1. Speed of admission process
 VERY POOR
-2. Courtesy of the person who admitted you†
+2. Courtesy of the person who admitted you
 FAIR
 </t>
         </is>
@@ -3088,15 +3077,15 @@
       <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -3108,7 +3097,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -3116,9 +3105,9 @@
       <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 FAIR
 3. Nurses' attitude toward your requests
 FAIR
@@ -3126,7 +3115,7 @@
 FAIR
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -3134,9 +3123,9 @@
       <c r="J17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Courtesy of the person who took your blood†
-VERY GOOD
-2. Courtesy of the person who started the IV†
+1. Courtesy of the person who took your blood
+VERY GOOD
+2. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -3144,9 +3133,9 @@
       <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -3160,9 +3149,9 @@
 VERY POOR
 3. How well doctors kept you informed
 VERY POOR
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -3170,11 +3159,11 @@
       <c r="M17" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
 VERY POOR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 VERY POOR
 </t>
         </is>
@@ -3184,7 +3173,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -3192,7 +3181,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 FAIR
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -3333,10 +3322,9 @@
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -3344,9 +3332,9 @@
       <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -3354,15 +3342,15 @@
       <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -3374,7 +3362,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -3382,9 +3370,9 @@
       <c r="I18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -3392,7 +3380,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -3400,9 +3388,9 @@
       <c r="J18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Courtesy of the person who took your blood†
-VERY GOOD
-2. Courtesy of the person who started the IV†
+1. Courtesy of the person who took your blood
+VERY GOOD
+2. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -3410,9 +3398,9 @@
       <c r="K18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -3426,9 +3414,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -3436,11 +3424,11 @@
       <c r="M18" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -3450,7 +3438,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -3458,7 +3446,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -3599,10 +3587,9 @@
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -3610,9 +3597,9 @@
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -3620,15 +3607,15 @@
       <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -3640,7 +3627,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -3648,7 +3635,7 @@
       <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
+1. Friendliness/courtesy of the nurses
 VERY GOOD
 2. Nurses' attitude toward your requests
 GOOD
@@ -3656,7 +3643,7 @@
 GOOD
 4. How well the nurses kept you informed
 GOOD
-5. Skill of the nurses†
+5. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -3664,13 +3651,13 @@
       <c r="J19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -3678,7 +3665,7 @@
       <c r="K19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
+1. Accommodations and comfort for visitors
 GOOD
 </t>
         </is>
@@ -3692,9 +3679,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -3702,11 +3689,11 @@
       <c r="M19" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
 FAIR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -3716,7 +3703,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -3724,7 +3711,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 GOOD
 </t>
         </is>
@@ -3863,10 +3850,9 @@
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -3874,9 +3860,9 @@
       <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -3884,15 +3870,15 @@
       <c r="G20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -3904,7 +3890,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -3912,9 +3898,9 @@
       <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -3922,7 +3908,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -3930,13 +3916,13 @@
       <c r="J20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -3944,9 +3930,9 @@
       <c r="K20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -3960,9 +3946,9 @@
 GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -3970,11 +3956,11 @@
       <c r="M20" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -3984,7 +3970,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -3992,7 +3978,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -4130,10 +4116,9 @@
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -4141,9 +4126,9 @@
       <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -4151,15 +4136,15 @@
       <c r="G21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -4171,7 +4156,7 @@
 GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -4179,9 +4164,9 @@
       <c r="I21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -4189,7 +4174,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -4197,13 +4182,13 @@
       <c r="J21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -4211,9 +4196,9 @@
       <c r="K21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -4227,9 +4212,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -4237,11 +4222,11 @@
       <c r="M21" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -4251,7 +4236,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -4259,7 +4244,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -4411,10 +4396,9 @@
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -4427,7 +4411,7 @@
 VERY GOOD
 2. Room temperature
 GOOD
-3. Noise level in and around room†
+3. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -4439,7 +4423,7 @@
 GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -4447,9 +4431,9 @@
       <c r="I22" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 GOOD
@@ -4457,7 +4441,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -4465,7 +4449,7 @@
       <c r="J22" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Courtesy of the person who took your blood†
+1. Courtesy of the person who took your blood
 FAIR
 </t>
         </is>
@@ -4484,7 +4468,7 @@
       <c r="M22" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Speed of discharge process after you were told you could go home†
+1. Speed of discharge process after you were told you could go home
 FAIR
 </t>
         </is>
@@ -4622,10 +4606,9 @@
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -4633,9 +4616,9 @@
       <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -4643,15 +4626,15 @@
       <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -4663,7 +4646,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -4671,9 +4654,9 @@
       <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -4681,7 +4664,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -4689,13 +4672,13 @@
       <c r="J23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -4703,9 +4686,9 @@
       <c r="K23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -4719,9 +4702,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -4729,11 +4712,11 @@
       <c r="M23" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -4743,7 +4726,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -4751,7 +4734,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -4877,10 +4860,9 @@
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -4888,9 +4870,9 @@
       <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -4898,15 +4880,15 @@
       <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -4918,7 +4900,7 @@
 GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -4926,9 +4908,9 @@
       <c r="I24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 GOOD
@@ -4936,7 +4918,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -4944,13 +4926,13 @@
       <c r="J24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -4958,9 +4940,9 @@
       <c r="K24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -4974,7 +4956,7 @@
 FAIR
 3. How well doctors kept you informed
 FAIR
-4. Friendliness/courtesy of doctors†
+4. Friendliness/courtesy of doctors
 FAIR
 </t>
         </is>
@@ -4982,11 +4964,11 @@
       <c r="M24" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -4996,7 +4978,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 FAIR
 3. Response to concerns/complaints made during your stay
 GOOD
@@ -5135,10 +5117,9 @@
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -5146,9 +5127,9 @@
       <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -5156,15 +5137,15 @@
       <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -5176,7 +5157,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -5184,9 +5165,9 @@
       <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -5194,7 +5175,7 @@
 GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -5202,13 +5183,13 @@
       <c r="J25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
 FAIR
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -5216,9 +5197,9 @@
       <c r="K25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -5232,9 +5213,9 @@
 FAIR
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -5242,11 +5223,11 @@
       <c r="M25" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -5256,7 +5237,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -5264,7 +5245,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -5390,10 +5371,9 @@
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -5401,9 +5381,9 @@
       <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -5411,15 +5391,15 @@
       <c r="G26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 FAIR
 </t>
         </is>
@@ -5431,7 +5411,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -5439,9 +5419,9 @@
       <c r="I26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 GOOD
@@ -5449,7 +5429,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -5457,13 +5437,13 @@
       <c r="J26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
 FAIR
-4. Courtesy of the person who started the IV†
+4. Courtesy of the person who started the IV
 FAIR
 </t>
         </is>
@@ -5471,9 +5451,9 @@
       <c r="K26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -5487,9 +5467,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -5497,11 +5477,11 @@
       <c r="M26" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
 FAIR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -5511,7 +5491,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 FAIR
 3. How well staff addressed your emotional needs
 FAIR
@@ -5519,7 +5499,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 FAIR
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 GOOD
 </t>
         </is>
@@ -5660,10 +5640,9 @@
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -5671,9 +5650,9 @@
       <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -5681,15 +5660,15 @@
       <c r="G27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -5701,7 +5680,7 @@
 FAIR
 2. Quality of the food
 FAIR
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -5709,9 +5688,9 @@
       <c r="I27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -5719,7 +5698,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -5727,11 +5706,11 @@
       <c r="J27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Explanations about what would happen during tests and treatments†
-VERY GOOD
-2. Courtesy of the person who took your blood†
-VERY GOOD
-3. Courtesy of the person who started the IV†
+1. Explanations about what would happen during tests and treatments
+VERY GOOD
+2. Courtesy of the person who took your blood
+VERY GOOD
+3. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -5739,9 +5718,9 @@
       <c r="K27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -5755,9 +5734,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -5765,11 +5744,11 @@
       <c r="M27" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -5779,7 +5758,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -5787,7 +5766,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -5926,10 +5905,9 @@
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -5938,15 +5916,15 @@
       <c r="G28" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -5958,7 +5936,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -5966,9 +5944,9 @@
       <c r="I28" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 GOOD
@@ -5976,7 +5954,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -5984,9 +5962,9 @@
       <c r="J28" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Courtesy of the person who took your blood†
-VERY GOOD
-2. Courtesy of the person who started the IV†
+1. Courtesy of the person who took your blood
+VERY GOOD
+2. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -6003,11 +5981,11 @@
       <c r="M28" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -6017,7 +5995,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -6025,7 +6003,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 GOOD
 </t>
         </is>
@@ -6146,10 +6124,9 @@
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -6157,9 +6134,9 @@
       <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -6167,15 +6144,15 @@
       <c r="G29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -6187,7 +6164,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -6195,9 +6172,9 @@
       <c r="I29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -6205,7 +6182,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -6213,13 +6190,13 @@
       <c r="J29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -6227,9 +6204,9 @@
       <c r="K29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -6243,9 +6220,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -6253,11 +6230,11 @@
       <c r="M29" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -6267,7 +6244,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -6275,7 +6252,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -6411,10 +6388,9 @@
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -6422,9 +6398,9 @@
       <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -6432,15 +6408,15 @@
       <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -6452,7 +6428,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -6460,9 +6436,9 @@
       <c r="I30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -6470,7 +6446,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -6478,13 +6454,13 @@
       <c r="J30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -6492,9 +6468,9 @@
       <c r="K30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -6508,9 +6484,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -6518,11 +6494,11 @@
       <c r="M30" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -6532,7 +6508,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -6540,7 +6516,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -6684,10 +6660,9 @@
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -6695,7 +6670,7 @@
       <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
+1. Speed of admission process
 VERY GOOD
 </t>
         </is>
@@ -6703,15 +6678,15 @@
       <c r="G31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -6723,7 +6698,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -6731,9 +6706,9 @@
       <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -6741,7 +6716,7 @@
 GOOD
 5. How well the nurses kept you informed
 GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -6749,13 +6724,13 @@
       <c r="J31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -6763,9 +6738,9 @@
       <c r="K31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -6779,9 +6754,9 @@
 GOOD
 3. How well doctors kept you informed
 FAIR
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -6789,11 +6764,11 @@
       <c r="M31" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -6803,7 +6778,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -6811,7 +6786,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 GOOD
 </t>
         </is>
@@ -6963,10 +6938,9 @@
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -6974,9 +6948,9 @@
       <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -6984,15 +6958,15 @@
       <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -7004,7 +6978,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -7012,9 +6986,9 @@
       <c r="I32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -7022,7 +6996,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -7030,13 +7004,13 @@
       <c r="J32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -7044,9 +7018,9 @@
       <c r="K32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -7060,9 +7034,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -7070,11 +7044,11 @@
       <c r="M32" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -7084,7 +7058,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -7092,7 +7066,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -7237,10 +7211,9 @@
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -7248,9 +7221,9 @@
       <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -7258,15 +7231,15 @@
       <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -7278,7 +7251,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -7286,9 +7259,9 @@
       <c r="I33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -7296,7 +7269,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -7304,13 +7277,13 @@
       <c r="J33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -7318,9 +7291,9 @@
       <c r="K33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -7334,9 +7307,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -7344,11 +7317,11 @@
       <c r="M33" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -7358,7 +7331,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -7366,7 +7339,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -7505,10 +7478,9 @@
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -7516,9 +7488,9 @@
       <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -7526,15 +7498,15 @@
       <c r="G34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 FAIR
 </t>
         </is>
@@ -7542,7 +7514,7 @@
       <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Meals(bold)
-1. Courtesy of the person who served your food†
+1. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -7550,9 +7522,9 @@
       <c r="I34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -7560,7 +7532,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -7568,11 +7540,11 @@
       <c r="J34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -7580,9 +7552,9 @@
       <c r="K34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -7592,9 +7564,9 @@
           <t xml:space="preserve">(bold)Doctors(bold)
 1. Time doctors spent with you
 FAIR
-2. Friendliness/courtesy of doctors†
-VERY GOOD
-3. Skill of doctors†
+2. Friendliness/courtesy of doctors
+VERY GOOD
+3. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -7602,11 +7574,11 @@
       <c r="M34" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -7616,13 +7588,13 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
 4. Response to concerns/complaints made during your stay
 VERY GOOD
-5. Extent to which staff washed their hands before examining you†
+5. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -7758,10 +7730,9 @@
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -7769,9 +7740,9 @@
       <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -7779,15 +7750,15 @@
       <c r="G35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -7799,7 +7770,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -7807,9 +7778,9 @@
       <c r="I35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -7817,7 +7788,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -7825,13 +7796,13 @@
       <c r="J35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -7839,9 +7810,9 @@
       <c r="K35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -7855,9 +7826,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -7865,11 +7836,11 @@
       <c r="M35" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -7879,7 +7850,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -7887,7 +7858,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -8018,10 +7989,9 @@
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 4
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY NO
 </t>
         </is>
@@ -8029,9 +7999,9 @@
       <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -8039,15 +8009,15 @@
       <c r="G36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
+1. Pleasantness of room decor
 FAIR
-2. Room cleanliness†
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -8059,7 +8029,7 @@
 GOOD
 2. Quality of the food
 FAIR
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -8067,9 +8037,9 @@
       <c r="I36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 GOOD
@@ -8077,7 +8047,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 FAIR
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -8085,13 +8055,13 @@
       <c r="J36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
 POOR
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -8099,9 +8069,9 @@
       <c r="K36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 FAIR
 </t>
         </is>
@@ -8115,9 +8085,9 @@
 POOR
 3. How well doctors kept you informed
 POOR
-4. Friendliness/courtesy of doctors†
+4. Friendliness/courtesy of doctors
 POOR
-5. Skill of doctors†
+5. Skill of doctors
 POOR
 </t>
         </is>
@@ -8125,11 +8095,11 @@
       <c r="M36" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY POOR
 </t>
         </is>
@@ -8139,7 +8109,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 POOR
@@ -8289,10 +8259,9 @@
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY NO
 </t>
         </is>
@@ -8300,9 +8269,9 @@
       <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
+1. Speed of admission process
 FAIR
-2. Courtesy of the person who admitted you†
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -8310,15 +8279,15 @@
       <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
+1. Pleasantness of room decor
 FAIR
-2. Room cleanliness†
+2. Room cleanliness
 FAIR
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -8330,7 +8299,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -8338,9 +8307,9 @@
       <c r="I37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 FAIR
@@ -8348,7 +8317,7 @@
 FAIR
 5. How well the nurses kept you informed
 FAIR
-6. Skill of the nurses†
+6. Skill of the nurses
 GOOD
 </t>
         </is>
@@ -8356,13 +8325,13 @@
       <c r="J37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -8370,9 +8339,9 @@
       <c r="K37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -8386,9 +8355,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -8396,11 +8365,11 @@
       <c r="M37" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -8410,7 +8379,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -8418,7 +8387,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 FAIR
 </t>
         </is>
@@ -8585,10 +8554,9 @@
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -8603,11 +8571,11 @@
       <c r="M38" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -8615,7 +8583,7 @@
       <c r="N38" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Personal Issues(bold)
-1. How well your pain was addressed†
+1. How well your pain was addressed
 VERY GOOD
 2. How well staff addressed your emotional needs
 VERY GOOD
@@ -8623,7 +8591,7 @@
 VERY GOOD
 4. Staff effort to include you in decisions about your treatment
 VERY GOOD
-5. Extent to which staff washed their hands before examining you†
+5. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -8731,10 +8699,9 @@
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -8742,9 +8709,9 @@
       <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -8752,15 +8719,15 @@
       <c r="G39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -8772,7 +8739,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -8780,9 +8747,9 @@
       <c r="I39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -8790,7 +8757,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -8798,13 +8765,13 @@
       <c r="J39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -8812,9 +8779,9 @@
       <c r="K39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
+1. Accommodations and comfort for visitors
 FAIR
-2. Staff attitude toward your visitors†
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -8828,9 +8795,9 @@
 GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -8838,11 +8805,11 @@
       <c r="M39" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -8852,13 +8819,13 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
 4. Staff effort to include you in decisions about your treatment
 GOOD
-5. Extent to which staff washed their hands before examining you†
+5. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -8983,10 +8950,9 @@
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -8994,9 +8960,9 @@
       <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -9004,15 +8970,15 @@
       <c r="G40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -9024,7 +8990,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -9032,9 +8998,9 @@
       <c r="I40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -9042,7 +9008,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -9050,13 +9016,13 @@
       <c r="J40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -9064,9 +9030,9 @@
       <c r="K40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -9080,9 +9046,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -9090,11 +9056,11 @@
       <c r="M40" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -9104,7 +9070,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -9112,7 +9078,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -9241,10 +9207,9 @@
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -9252,9 +9217,9 @@
       <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -9262,15 +9227,15 @@
       <c r="G41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 FAIR
-5. Noise level in and around room†
+5. Noise level in and around room
 FAIR
 </t>
         </is>
@@ -9282,7 +9247,7 @@
 VERY GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -9290,9 +9255,9 @@
       <c r="I41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -9300,7 +9265,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -9308,9 +9273,9 @@
       <c r="J41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Courtesy of the person who took your blood†
-VERY GOOD
-2. Courtesy of the person who started the IV†
+1. Courtesy of the person who took your blood
+VERY GOOD
+2. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -9318,9 +9283,9 @@
       <c r="K41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
+1. Accommodations and comfort for visitors
 FAIR
-2. Staff attitude toward your visitors†
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -9334,9 +9299,9 @@
 GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -9344,11 +9309,11 @@
       <c r="M41" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-VERY GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+VERY GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -9358,7 +9323,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -9366,7 +9331,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -9505,8 +9470,7 @@
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
 </t>
         </is>
@@ -9521,11 +9485,11 @@
       <c r="M42" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
 FAIR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -9535,7 +9499,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -9543,7 +9507,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -9681,10 +9645,9 @@
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -9692,9 +9655,9 @@
       <c r="F43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -9702,15 +9665,15 @@
       <c r="G43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -9722,7 +9685,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -9730,9 +9693,9 @@
       <c r="I43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -9740,7 +9703,7 @@
 GOOD
 5. How well the nurses kept you informed
 FAIR
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -9748,11 +9711,11 @@
       <c r="J43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
 FAIR
-3. Courtesy of the person who took your blood†
+3. Courtesy of the person who took your blood
 VERY GOOD
 </t>
         </is>
@@ -9760,9 +9723,9 @@
       <c r="K43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -9776,9 +9739,9 @@
 GOOD
 3. How well doctors kept you informed
 FAIR
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -9786,9 +9749,9 @@
       <c r="M43" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
 GOOD
 </t>
         </is>
@@ -9798,7 +9761,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 GOOD
 3. How well staff addressed your emotional needs
 GOOD
@@ -9942,10 +9905,9 @@
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -9953,9 +9915,9 @@
       <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -9963,15 +9925,15 @@
       <c r="G44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -9983,7 +9945,7 @@
 VERY GOOD
 2. Quality of the food
 VERY GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -9991,9 +9953,9 @@
       <c r="I44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -10001,7 +9963,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -10009,13 +9971,13 @@
       <c r="J44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
+1. Waiting time for tests or treatments
 POOR
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -10023,9 +9985,9 @@
       <c r="K44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -10039,9 +10001,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -10049,11 +10011,11 @@
       <c r="M44" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
+1. Extent to which you felt ready to be discharged
 FAIR
-2. Speed of discharge process after you were told you could go home†
+2. Speed of discharge process after you were told you could go home
 POOR
-3. Instructions given about how to care for yourself at home†
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -10063,7 +10025,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -10071,7 +10033,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -10232,10 +10194,9 @@
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -10243,9 +10204,9 @@
       <c r="F45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-VERY GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+VERY GOOD
+2. Courtesy of the person who admitted you
 VERY GOOD
 </t>
         </is>
@@ -10253,15 +10214,15 @@
       <c r="G45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-VERY GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+VERY GOOD
+2. Room cleanliness
 VERY GOOD
 3. Courtesy of the person who cleaned your room
 VERY GOOD
 4. Room temperature
 VERY GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 VERY GOOD
 </t>
         </is>
@@ -10273,7 +10234,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 VERY GOOD
 </t>
         </is>
@@ -10281,9 +10242,9 @@
       <c r="I45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -10291,7 +10252,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -10299,13 +10260,13 @@
       <c r="J45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-VERY GOOD
-2. Explanations about what would happen during tests and treatments†
-VERY GOOD
-3. Courtesy of the person who took your blood†
-VERY GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+VERY GOOD
+2. Explanations about what would happen during tests and treatments
+VERY GOOD
+3. Courtesy of the person who took your blood
+VERY GOOD
+4. Courtesy of the person who started the IV
 VERY GOOD
 </t>
         </is>
@@ -10313,9 +10274,9 @@
       <c r="K45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-VERY GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+VERY GOOD
+2. Staff attitude toward your visitors
 VERY GOOD
 </t>
         </is>
@@ -10329,9 +10290,9 @@
 VERY GOOD
 3. How well doctors kept you informed
 VERY GOOD
-4. Friendliness/courtesy of doctors†
-VERY GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+VERY GOOD
+5. Skill of doctors
 VERY GOOD
 </t>
         </is>
@@ -10339,11 +10300,11 @@
       <c r="M45" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-VERY GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+VERY GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 VERY GOOD
 </t>
         </is>
@@ -10353,7 +10314,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -10361,7 +10322,7 @@
 GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
@@ -10511,10 +10472,9 @@
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -10642,10 +10602,9 @@
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -10773,10 +10732,9 @@
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -10896,10 +10854,9 @@
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -11027,10 +10984,9 @@
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -11170,10 +11126,9 @@
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -11300,10 +11255,9 @@
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -11433,10 +11387,9 @@
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -11574,10 +11527,9 @@
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -11688,10 +11640,9 @@
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -11821,10 +11772,9 @@
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -11951,10 +11901,9 @@
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -12090,10 +12039,9 @@
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -12223,10 +12171,9 @@
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -12347,10 +12294,9 @@
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -12484,10 +12430,9 @@
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -12615,10 +12560,9 @@
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -12746,10 +12690,9 @@
       <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -12885,10 +12828,9 @@
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13004,10 +12946,9 @@
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13144,10 +13085,9 @@
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13267,10 +13207,9 @@
       <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13403,10 +13342,9 @@
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13526,10 +13464,9 @@
       <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13649,10 +13586,9 @@
       <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13780,10 +13716,9 @@
       <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -13910,10 +13845,9 @@
       <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -14046,10 +13980,9 @@
       <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -14175,10 +14108,9 @@
       <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -14301,10 +14233,9 @@
       <c r="E75" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -14415,10 +14346,9 @@
       <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -14546,10 +14476,9 @@
       <c r="E77" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -14665,10 +14594,9 @@
       <c r="E78" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -14807,10 +14735,9 @@
       <c r="E79" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -14940,10 +14867,9 @@
       <c r="E80" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15073,10 +14999,9 @@
       <c r="E81" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15195,10 +15120,9 @@
       <c r="E82" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15323,10 +15247,9 @@
       <c r="E83" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15454,10 +15377,9 @@
       <c r="E84" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -15577,10 +15499,9 @@
       <c r="E85" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15714,10 +15635,9 @@
       <c r="E86" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15845,10 +15765,9 @@
       <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -15966,10 +15885,9 @@
       <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -16106,10 +16024,9 @@
       <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -16224,10 +16141,9 @@
       <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -16365,10 +16281,9 @@
       <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -16504,10 +16419,9 @@
       <c r="E92" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -16635,10 +16549,9 @@
       <c r="E93" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -16766,10 +16679,9 @@
       <c r="E94" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -16907,10 +16819,9 @@
       <c r="E95" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17047,10 +16958,9 @@
       <c r="E96" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17177,10 +17087,9 @@
       <c r="E97" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17318,10 +17227,9 @@
       <c r="E98" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17439,10 +17347,9 @@
       <c r="E99" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17568,10 +17475,9 @@
       <c r="E100" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17697,10 +17603,9 @@
       <c r="E101" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -17837,10 +17742,9 @@
       <c r="E102" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -17956,10 +17860,9 @@
       <c r="E103" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -18096,10 +17999,9 @@
       <c r="E104" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -18224,10 +18126,9 @@
       <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -18364,10 +18265,9 @@
       <c r="E106" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -18493,10 +18393,9 @@
       <c r="E107" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -18626,10 +18525,9 @@
       <c r="E108" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -18755,10 +18653,9 @@
       <c r="E109" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -18897,10 +18794,9 @@
       <c r="E110" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -19028,8 +18924,7 @@
       <c r="E111" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
 </t>
         </is>
@@ -19141,10 +19036,9 @@
       <c r="E112" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -19263,10 +19157,9 @@
       <c r="E113" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -19401,10 +19294,9 @@
       <c r="E114" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -19532,10 +19424,9 @@
       <c r="E115" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -19655,10 +19546,9 @@
       <c r="E116" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -19783,10 +19673,9 @@
       <c r="E117" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -19914,10 +19803,9 @@
       <c r="E118" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -20054,10 +19942,9 @@
       <c r="E119" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -20195,10 +20082,9 @@
       <c r="E120" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -20323,10 +20209,9 @@
       <c r="E121" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -20451,10 +20336,9 @@
       <c r="E122" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -20570,10 +20454,9 @@
       <c r="E123" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -20700,10 +20583,9 @@
       <c r="E124" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -20831,10 +20713,9 @@
       <c r="E125" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -20943,10 +20824,9 @@
       <c r="E126" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -21061,10 +20941,9 @@
       <c r="E127" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -21180,10 +21059,9 @@
       <c r="E128" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -21311,10 +21189,9 @@
       <c r="E129" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 6
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -21444,10 +21321,9 @@
       <c r="E130" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -21566,10 +21442,9 @@
       <c r="E131" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -21695,10 +21570,9 @@
       <c r="E132" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -21826,10 +21700,9 @@
       <c r="E133" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -21957,10 +21830,9 @@
       <c r="E134" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -22076,10 +21948,9 @@
       <c r="E135" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -22209,10 +22080,9 @@
       <c r="E136" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -22348,10 +22218,9 @@
       <c r="E137" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -22481,10 +22350,9 @@
       <c r="E138" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -22600,10 +22468,9 @@
       <c r="E139" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -22722,10 +22589,9 @@
       <c r="E140" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -22902,10 +22768,9 @@
       <c r="E142" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23043,10 +22908,9 @@
       <c r="E143" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23184,8 +23048,7 @@
       <c r="E144" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
 </t>
         </is>
@@ -23296,10 +23159,9 @@
       <c r="E145" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23434,10 +23296,9 @@
       <c r="E146" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23554,10 +23415,9 @@
       <c r="E147" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23677,10 +23537,9 @@
       <c r="E148" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23817,10 +23676,9 @@
       <c r="E149" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -23958,10 +23816,9 @@
       <c r="E150" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -24101,10 +23958,9 @@
       <c r="E151" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -24221,10 +24077,9 @@
       <c r="E152" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -24349,10 +24204,9 @@
       <c r="E153" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -24455,10 +24309,9 @@
       <c r="E154" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -24583,10 +24436,9 @@
       <c r="E155" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -24716,10 +24568,9 @@
       <c r="E156" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -24838,10 +24689,9 @@
       <c r="E157" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -24976,10 +24826,9 @@
       <c r="E158" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -25107,10 +24956,9 @@
       <c r="E159" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -25230,10 +25078,9 @@
       <c r="E160" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -25363,10 +25210,9 @@
       <c r="E161" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 6
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -25501,10 +25347,9 @@
       <c r="E162" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -25629,10 +25474,9 @@
       <c r="E163" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -25771,10 +25615,9 @@
       <c r="E164" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -25912,10 +25755,9 @@
       <c r="E165" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -26051,10 +25893,9 @@
       <c r="E166" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -26191,10 +26032,9 @@
       <c r="E167" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -26312,10 +26152,9 @@
       <c r="E168" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -26440,10 +26279,9 @@
       <c r="E169" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -26552,10 +26390,9 @@
       <c r="E170" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -26675,10 +26512,9 @@
       <c r="E171" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -26808,10 +26644,9 @@
       <c r="E172" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -26938,10 +26773,9 @@
       <c r="E173" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -27078,10 +26912,9 @@
       <c r="E174" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY NO
 </t>
         </is>
@@ -27218,10 +27051,9 @@
       <c r="E175" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -27349,10 +27181,9 @@
       <c r="E176" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -27490,10 +27321,9 @@
       <c r="E177" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -27623,10 +27453,9 @@
       <c r="E178" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -27756,10 +27585,9 @@
       <c r="E179" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -27870,10 +27698,9 @@
       <c r="E180" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -27998,10 +27825,9 @@
       <c r="E181" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -28108,10 +27934,9 @@
       <c r="E182" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -28250,10 +28075,9 @@
       <c r="E183" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -28390,10 +28214,9 @@
       <c r="E184" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -28523,10 +28346,9 @@
       <c r="E185" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -28644,10 +28466,9 @@
       <c r="E186" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -28771,10 +28592,9 @@
       <c r="E187" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -28895,10 +28715,9 @@
       <c r="E188" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -29036,10 +28855,9 @@
       <c r="E189" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 7
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -29175,10 +28993,9 @@
       <c r="E190" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -29318,10 +29135,9 @@
       <c r="E191" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -29430,10 +29246,9 @@
       <c r="E192" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -29551,10 +29366,9 @@
       <c r="E193" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 6
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -29694,10 +29508,9 @@
       <c r="E194" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -29825,10 +29638,9 @@
       <c r="E195" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -29958,10 +29770,9 @@
       <c r="E196" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30091,10 +29902,9 @@
       <c r="E197" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30220,10 +30030,9 @@
       <c r="E198" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30353,10 +30162,9 @@
       <c r="E199" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30465,10 +30273,9 @@
       <c r="E200" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30586,10 +30393,9 @@
       <c r="E201" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30719,10 +30525,9 @@
       <c r="E202" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30850,10 +30655,9 @@
       <c r="E203" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -30988,10 +30792,9 @@
       <c r="E204" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -31111,7 +30914,7 @@
       <c r="E205" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Would you recommend this hospital to your friends and family?
+1.   
 DEFINITELY YES
 </t>
         </is>
@@ -31225,10 +31028,9 @@
       <c r="E206" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -31346,10 +31148,9 @@
       <c r="E207" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -31479,10 +31280,9 @@
       <c r="E208" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -31620,10 +31420,9 @@
       <c r="E209" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -31738,10 +31537,9 @@
       <c r="E210" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -31856,10 +31654,9 @@
       <c r="E211" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -31985,10 +31782,9 @@
       <c r="E212" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -32108,10 +31904,9 @@
       <c r="E213" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -32238,7 +32033,7 @@
       <c r="E214" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Would you recommend this hospital to your friends and family?
+1.   
 DEFINITELY YES
 </t>
         </is>
@@ -32375,8 +32170,7 @@
       <c r="E215" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
 </t>
         </is>
@@ -32504,10 +32298,9 @@
       <c r="E216" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -32644,10 +32437,9 @@
       <c r="E217" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY NO
 </t>
         </is>
@@ -32789,7 +32581,7 @@
       <c r="E218" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Would you recommend this hospital to your friends and family?
+1.   
 PROBABLY YES
 </t>
         </is>
@@ -32907,10 +32699,9 @@
       <c r="E219" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -33019,10 +32810,9 @@
       <c r="E220" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -33148,10 +32938,9 @@
       <c r="E221" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -33279,10 +33068,9 @@
       <c r="E222" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -33410,10 +33198,9 @@
       <c r="E223" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -33539,10 +33326,9 @@
       <c r="E224" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -33680,10 +33466,9 @@
       <c r="E225" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -33813,10 +33598,9 @@
       <c r="E226" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -33944,10 +33728,9 @@
       <c r="E227" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -34080,10 +33863,9 @@
       <c r="E228" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -34220,10 +34002,9 @@
       <c r="E229" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -34347,10 +34128,9 @@
       <c r="E230" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -34480,10 +34260,9 @@
       <c r="E231" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -34610,10 +34389,9 @@
       <c r="E232" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -34715,10 +34493,9 @@
       <c r="E233" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -34853,10 +34630,9 @@
       <c r="E234" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -34995,10 +34771,9 @@
       <c r="E235" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -35135,10 +34910,9 @@
       <c r="E236" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -35268,10 +35042,9 @@
       <c r="E237" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 5
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -35387,10 +35160,9 @@
       <c r="E238" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -35516,10 +35288,9 @@
       <c r="E239" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY NO
 </t>
         </is>
@@ -35636,10 +35407,9 @@
       <c r="E240" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -35757,10 +35527,9 @@
       <c r="E241" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -35857,10 +35626,9 @@
       <c r="E242" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -35971,10 +35739,9 @@
       <c r="E243" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -36101,10 +35868,9 @@
       <c r="E244" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -36223,10 +35989,9 @@
       <c r="E245" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -36354,8 +36119,7 @@
       <c r="E246" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 4
 </t>
         </is>
@@ -36451,10 +36215,9 @@
       <c r="E247" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -36572,10 +36335,9 @@
       <c r="E248" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -36706,10 +36468,9 @@
       <c r="E249" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -36846,10 +36607,9 @@
       <c r="E250" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -36984,10 +36744,9 @@
       <c r="E251" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -37099,10 +36858,9 @@
       <c r="E252" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -37228,10 +36986,9 @@
       <c r="E253" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 3
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY NO
 </t>
         </is>
@@ -37377,10 +37134,9 @@
       <c r="E254" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -37508,10 +37264,9 @@
       <c r="E255" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 3
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -37647,10 +37402,9 @@
       <c r="E256" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 4
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY NO
 </t>
         </is>
@@ -37790,10 +37544,9 @@
       <c r="E257" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -37923,10 +37676,9 @@
       <c r="E258" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -38054,10 +37806,9 @@
       <c r="E259" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -38183,10 +37934,9 @@
       <c r="E260" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -38316,10 +38066,9 @@
       <c r="E261" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -38465,10 +38214,9 @@
       <c r="E262" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -38603,10 +38351,9 @@
       <c r="E263" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -38740,10 +38487,9 @@
       <c r="E264" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -38861,10 +38607,9 @@
       <c r="E265" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -38999,10 +38744,9 @@
       <c r="E266" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -39111,10 +38855,9 @@
       <c r="E267" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -39248,10 +38991,9 @@
       <c r="E268" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 9
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -39379,10 +39121,9 @@
       <c r="E269" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 DEFINITELY YES
 </t>
         </is>
@@ -39501,10 +39242,9 @@
       <c r="E270" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 8
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -39639,10 +39379,9 @@
       <c r="E271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Background Questions(bold)
-1. Using any number from 0 to 10, where 0 is the worst hospital possible and 10 is the best hospital possible, what
-number would you use to rate this hospital?
+1.  
 10-BEST POSSIBLE
-2. Would you recommend this hospital to your friends and family?
+2.   
 PROBABLY YES
 </t>
         </is>
@@ -39650,9 +39389,9 @@
       <c r="F271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Admission(bold)
-1. Speed of admission process†
-GOOD
-2. Courtesy of the person who admitted you†
+1. Speed of admission process
+GOOD
+2. Courtesy of the person who admitted you
 GOOD
 </t>
         </is>
@@ -39660,15 +39399,15 @@
       <c r="G271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Room(bold)
-1. Pleasantness of room decor†
-GOOD
-2. Room cleanliness†
+1. Pleasantness of room decor
+GOOD
+2. Room cleanliness
 GOOD
 3. Courtesy of the person who cleaned your room
 GOOD
 4. Room temperature
 GOOD
-5. Noise level in and around room†
+5. Noise level in and around room
 GOOD
 </t>
         </is>
@@ -39680,7 +39419,7 @@
 GOOD
 2. Quality of the food
 GOOD
-3. Courtesy of the person who served your food†
+3. Courtesy of the person who served your food
 GOOD
 </t>
         </is>
@@ -39688,9 +39427,9 @@
       <c r="I271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Nurses(bold)
-1. Friendliness/courtesy of the nurses†
-VERY GOOD
-2. Promptness in responding to the call button†
+1. Friendliness/courtesy of the nurses
+VERY GOOD
+2. Promptness in responding to the call button
 VERY GOOD
 3. Nurses' attitude toward your requests
 VERY GOOD
@@ -39698,7 +39437,7 @@
 VERY GOOD
 5. How well the nurses kept you informed
 VERY GOOD
-6. Skill of the nurses†
+6. Skill of the nurses
 VERY GOOD
 </t>
         </is>
@@ -39706,13 +39445,13 @@
       <c r="J271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Tests and Treatments(bold)
-1. Waiting time for tests or treatments†
-GOOD
-2. Explanations about what would happen during tests and treatments†
-GOOD
-3. Courtesy of the person who took your blood†
-GOOD
-4. Courtesy of the person who started the IV†
+1. Waiting time for tests or treatments
+GOOD
+2. Explanations about what would happen during tests and treatments
+GOOD
+3. Courtesy of the person who took your blood
+GOOD
+4. Courtesy of the person who started the IV
 GOOD
 </t>
         </is>
@@ -39720,9 +39459,9 @@
       <c r="K271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Visitors and Family(bold)
-1. Accommodations and comfort for visitors†
-GOOD
-2. Staff attitude toward your visitors†
+1. Accommodations and comfort for visitors
+GOOD
+2. Staff attitude toward your visitors
 GOOD
 </t>
         </is>
@@ -39736,9 +39475,9 @@
 GOOD
 3. How well doctors kept you informed
 GOOD
-4. Friendliness/courtesy of doctors†
-GOOD
-5. Skill of doctors†
+4. Friendliness/courtesy of doctors
+GOOD
+5. Skill of doctors
 GOOD
 </t>
         </is>
@@ -39746,11 +39485,11 @@
       <c r="M271" t="inlineStr">
         <is>
           <t xml:space="preserve">(bold)Discharge(bold)
-1. Extent to which you felt ready to be discharged†
-GOOD
-2. Speed of discharge process after you were told you could go home†
-GOOD
-3. Instructions given about how to care for yourself at home†
+1. Extent to which you felt ready to be discharged
+GOOD
+2. Speed of discharge process after you were told you could go home
+GOOD
+3. Instructions given about how to care for yourself at home
 GOOD
 </t>
         </is>
@@ -39760,7 +39499,7 @@
           <t xml:space="preserve">(bold)Personal Issues(bold)
 1. Staff concern for your privacy
 VERY GOOD
-2. How well your pain was addressed†
+2. How well your pain was addressed
 VERY GOOD
 3. How well staff addressed your emotional needs
 VERY GOOD
@@ -39768,7 +39507,7 @@
 VERY GOOD
 5. Staff effort to include you in decisions about your treatment
 VERY GOOD
-6. Extent to which staff washed their hands before examining you†
+6. Extent to which staff washed their hands before examining you
 VERY GOOD
 </t>
         </is>
